--- a/teaching/traditional_assets/database/data/new_zealand/new_zealand_drugs_biotechnology.xlsx
+++ b/teaching/traditional_assets/database/data/new_zealand/new_zealand_drugs_biotechnology.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.234</v>
+        <v>0.0722</v>
       </c>
       <c r="G2">
-        <v>-2.169381107491857</v>
+        <v>-0.09756232686980602</v>
       </c>
       <c r="H2">
-        <v>-3.973941368078176</v>
+        <v>-0.6388365650969529</v>
       </c>
       <c r="I2">
-        <v>-3.683851309563607</v>
+        <v>-0.9399612761757091</v>
       </c>
       <c r="J2">
-        <v>-3.683851309563607</v>
+        <v>-0.9399612761757091</v>
       </c>
       <c r="K2">
-        <v>-11.6</v>
+        <v>-23.3</v>
       </c>
       <c r="L2">
-        <v>-3.778501628664495</v>
+        <v>-1.290858725761773</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,70 +633,67 @@
         <v>0</v>
       </c>
       <c r="U2">
+        <v>16.55</v>
+      </c>
+      <c r="V2">
+        <v>0.01830144863430278</v>
+      </c>
+      <c r="X2">
+        <v>0.05576330758190857</v>
+      </c>
+      <c r="Z2">
+        <v>7.725212935211585</v>
+      </c>
+      <c r="AA2">
+        <v>-177.0954031034483</v>
+      </c>
+      <c r="AB2">
+        <v>0.05502162670965156</v>
+      </c>
+      <c r="AC2">
+        <v>-177.1504247301579</v>
+      </c>
+      <c r="AD2">
+        <v>13.8</v>
+      </c>
+      <c r="AE2">
+        <v>0.01650517485776423</v>
+      </c>
+      <c r="AF2">
+        <v>13.81650517485776</v>
+      </c>
+      <c r="AG2">
+        <v>-2.733494825142236</v>
+      </c>
+      <c r="AH2">
+        <v>0.01504874936566615</v>
+      </c>
+      <c r="AI2">
+        <v>0.1839343449578147</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.003031939196334803</v>
+      </c>
+      <c r="AK2">
+        <v>-0.04667334711164749</v>
+      </c>
+      <c r="AL2">
         <v>1.71</v>
       </c>
-      <c r="V2">
-        <v>0.03064516129032258</v>
-      </c>
-      <c r="W2">
-        <v>-1.604426002766252</v>
-      </c>
-      <c r="X2">
-        <v>0.09415046326713522</v>
-      </c>
-      <c r="Y2">
-        <v>-1.698576466033387</v>
-      </c>
-      <c r="Z2">
-        <v>0.5577642452616306</v>
-      </c>
-      <c r="AA2">
-        <v>-2.054720545334815</v>
-      </c>
-      <c r="AB2">
-        <v>0.09167012367683176</v>
-      </c>
-      <c r="AC2">
-        <v>-2.146390669011647</v>
-      </c>
-      <c r="AD2">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AE2">
-        <v>1.212117601801374</v>
-      </c>
-      <c r="AF2">
-        <v>2.152117601801374</v>
-      </c>
-      <c r="AG2">
-        <v>0.4421176018013737</v>
-      </c>
-      <c r="AH2">
-        <v>0.0371361339474932</v>
-      </c>
-      <c r="AI2">
-        <v>0.4105435561121009</v>
-      </c>
-      <c r="AJ2">
-        <v>0.007860970046177871</v>
-      </c>
-      <c r="AK2">
-        <v>0.1251706912521527</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
       <c r="AM2">
-        <v>-0.168</v>
+        <v>1.485</v>
       </c>
       <c r="AN2">
-        <v>-0.08571168049603356</v>
+        <v>-0.9071189114573063</v>
+      </c>
+      <c r="AO2">
+        <v>-9.929824561403509</v>
       </c>
       <c r="AP2">
-        <v>-0.04031344960348079</v>
+        <v>0.1796815108882032</v>
       </c>
       <c r="AQ2">
-        <v>70.23809523809524</v>
+        <v>-11.43434343434344</v>
       </c>
     </row>
     <row r="3">
@@ -716,25 +713,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.234</v>
+        <v>0.0722</v>
       </c>
       <c r="G3">
-        <v>-2.169381107491857</v>
+        <v>-1.197590361445783</v>
       </c>
       <c r="H3">
-        <v>-3.973941368078176</v>
+        <v>-2.698795180722891</v>
       </c>
       <c r="I3">
-        <v>-3.683851309563607</v>
+        <v>-2.698795180722891</v>
       </c>
       <c r="J3">
-        <v>-3.683851309563607</v>
+        <v>-2.698795180722891</v>
       </c>
       <c r="K3">
-        <v>-11.6</v>
+        <v>-11</v>
       </c>
       <c r="L3">
-        <v>-3.778501628664495</v>
+        <v>-2.650602409638554</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -758,70 +755,189 @@
         <v>0</v>
       </c>
       <c r="U3">
+        <v>4.15</v>
+      </c>
+      <c r="V3">
+        <v>0.006509803921568628</v>
+      </c>
+      <c r="W3">
+        <v>-3.559870550161813</v>
+      </c>
+      <c r="X3">
+        <v>0.05516479363085694</v>
+      </c>
+      <c r="Y3">
+        <v>-3.61503534379267</v>
+      </c>
+      <c r="Z3">
+        <v>1.788793103448276</v>
+      </c>
+      <c r="AA3">
+        <v>-4.827586206896552</v>
+      </c>
+      <c r="AB3">
+        <v>0.05504841870654482</v>
+      </c>
+      <c r="AC3">
+        <v>-4.882634625603098</v>
+      </c>
+      <c r="AD3">
+        <v>2.9</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>2.9</v>
+      </c>
+      <c r="AG3">
+        <v>-1.25</v>
+      </c>
+      <c r="AH3">
+        <v>0.00452841973766396</v>
+      </c>
+      <c r="AI3">
+        <v>0.1260869565217391</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.001964636542239686</v>
+      </c>
+      <c r="AK3">
+        <v>-0.06631299734748013</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>-0.203</v>
+      </c>
+      <c r="AN3">
+        <v>-0.2636363636363636</v>
+      </c>
+      <c r="AP3">
+        <v>0.1136363636363637</v>
+      </c>
+      <c r="AQ3">
+        <v>55.17241379310344</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aroa Biosurgery Limited (ASX:ARX)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Drugs (Biotechnology)</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>0.230863309352518</v>
+      </c>
+      <c r="H4">
+        <v>-0.02381294964028777</v>
+      </c>
+      <c r="I4">
+        <v>-0.4148418010770901</v>
+      </c>
+      <c r="J4">
+        <v>-0.4148418010770901</v>
+      </c>
+      <c r="K4">
+        <v>-12.3</v>
+      </c>
+      <c r="L4">
+        <v>-0.8848920863309353</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>12.4</v>
+      </c>
+      <c r="V4">
+        <v>0.04647676161919041</v>
+      </c>
+      <c r="X4">
+        <v>0.0563618215329602</v>
+      </c>
+      <c r="Z4">
+        <v>842.1601176470587</v>
+      </c>
+      <c r="AA4">
+        <v>-349.36322</v>
+      </c>
+      <c r="AB4">
+        <v>0.05499483471275831</v>
+      </c>
+      <c r="AC4">
+        <v>-349.4182148347127</v>
+      </c>
+      <c r="AD4">
+        <v>10.9</v>
+      </c>
+      <c r="AE4">
+        <v>0.01650517485776423</v>
+      </c>
+      <c r="AF4">
+        <v>10.91650517485776</v>
+      </c>
+      <c r="AG4">
+        <v>-1.483494825142236</v>
+      </c>
+      <c r="AH4">
+        <v>0.0393080892616895</v>
+      </c>
+      <c r="AI4">
+        <v>0.2094634921937196</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.005591415521490204</v>
+      </c>
+      <c r="AK4">
+        <v>-0.03735209879648099</v>
+      </c>
+      <c r="AL4">
         <v>1.71</v>
       </c>
-      <c r="V3">
-        <v>0.03064516129032258</v>
-      </c>
-      <c r="W3">
-        <v>-1.604426002766252</v>
-      </c>
-      <c r="X3">
-        <v>0.09415046326713522</v>
-      </c>
-      <c r="Y3">
-        <v>-1.698576466033387</v>
-      </c>
-      <c r="Z3">
-        <v>0.5577642452616306</v>
-      </c>
-      <c r="AA3">
-        <v>-2.054720545334815</v>
-      </c>
-      <c r="AB3">
-        <v>0.09167012367683176</v>
-      </c>
-      <c r="AC3">
-        <v>-2.146390669011647</v>
-      </c>
-      <c r="AD3">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AE3">
-        <v>1.212117601801374</v>
-      </c>
-      <c r="AF3">
-        <v>2.152117601801374</v>
-      </c>
-      <c r="AG3">
-        <v>0.4421176018013737</v>
-      </c>
-      <c r="AH3">
-        <v>0.0371361339474932</v>
-      </c>
-      <c r="AI3">
-        <v>0.4105435561121009</v>
-      </c>
-      <c r="AJ3">
-        <v>0.007860970046177871</v>
-      </c>
-      <c r="AK3">
-        <v>0.1251706912521527</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>-0.168</v>
-      </c>
-      <c r="AN3">
-        <v>-0.08571168049603356</v>
-      </c>
-      <c r="AP3">
-        <v>-0.04031344960348079</v>
-      </c>
-      <c r="AQ3">
-        <v>70.23809523809524</v>
+      <c r="AM4">
+        <v>1.688</v>
+      </c>
+      <c r="AN4">
+        <v>-2.587230002373606</v>
+      </c>
+      <c r="AO4">
+        <v>-3.380116959064328</v>
+      </c>
+      <c r="AP4">
+        <v>0.3521231486214659</v>
+      </c>
+      <c r="AQ4">
+        <v>-3.424170616113744</v>
       </c>
     </row>
   </sheetData>
